--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed1/result_data_RandomForest.xlsx
@@ -491,12 +491,12 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1978</v>
+        <v>15.9729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.75419999999998</v>
+        <v>-20.85499999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.79970000000001</v>
+        <v>-22.71130000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.0535</v>
+        <v>-21.96010000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>4.788299999999999</v>
+        <v>4.799900000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.33120000000002</v>
+        <v>-22.30080000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.301000000000003</v>
+        <v>5.410599999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,16 +635,16 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.023399999999998</v>
+        <v>5.1019</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.137599999999999</v>
+        <v>-6.044599999999997</v>
       </c>
       <c r="E12" t="n">
-        <v>18.56770000000002</v>
+        <v>18.75910000000001</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.5374</v>
+        <v>-8.451000000000002</v>
       </c>
       <c r="E13" t="n">
-        <v>16.32610000000001</v>
+        <v>16.55690000000001</v>
       </c>
     </row>
     <row r="14">
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.922999999999994</v>
+        <v>-8.2387</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.104199999999997</v>
+        <v>5.036099999999998</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.47979999999998</v>
+        <v>-21.48279999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.242600000000005</v>
+        <v>-9.128400000000006</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.717199999999995</v>
+        <v>-7.531899999999991</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.57500000000001</v>
+        <v>-22.51260000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.929399999999997</v>
+        <v>4.366299999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.304599999999994</v>
+        <v>-7.665199999999995</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.2119</v>
+        <v>-22.2062</v>
       </c>
       <c r="B21" t="n">
-        <v>5.387899999999997</v>
+        <v>5.383799999999997</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,16 +805,16 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.827800000000002</v>
+        <v>9.940600000000002</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.234200000000003</v>
+        <v>-6.825299999999991</v>
       </c>
       <c r="E22" t="n">
-        <v>16.6332</v>
+        <v>16.99910000000001</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.061600000000004</v>
+        <v>8.895200000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.10880000000001</v>
+        <v>17.0746</v>
       </c>
     </row>
     <row r="26">
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.32249999999999</v>
+        <v>-22.35340000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.65089999999998</v>
+        <v>-21.7276</v>
       </c>
       <c r="B29" t="n">
-        <v>5.272400000000001</v>
+        <v>5.388500000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,12 +933,12 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.39040000000001</v>
+        <v>17.29140000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.79160000000002</v>
+        <v>-21.88450000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.19689999999999</v>
+        <v>-21.20699999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.484200000000005</v>
+        <v>9.727400000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.17810000000001</v>
+        <v>17.1845</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.240399999999996</v>
+        <v>-8.361299999999998</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.49559999999999</v>
+        <v>-19.18239999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.10229999999999</v>
+        <v>9.851299999999997</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,16 +1162,16 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.148700000000003</v>
+        <v>5.078900000000004</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.410199999999998</v>
+        <v>-8.443900000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>16.59319999999999</v>
+        <v>16.55049999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.509299999999999</v>
+        <v>5.489899999999997</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.061200000000004</v>
+        <v>5.017000000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.1686</v>
+        <v>-22.0647</v>
       </c>
       <c r="B46" t="n">
-        <v>5.635700000000002</v>
+        <v>5.7593</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.322599999999994</v>
+        <v>-8.775299999999994</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.6064</v>
+        <v>17.45890000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.572399999999995</v>
+        <v>4.556799999999995</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.2879</v>
+        <v>-8.195799999999997</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.2185</v>
+        <v>-22.14879999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>5.309799999999998</v>
+        <v>5.317199999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.08479999999999</v>
+        <v>-22.13939999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.84850000000002</v>
+        <v>-22.71610000000002</v>
       </c>
       <c r="B57" t="n">
-        <v>5.154899999999997</v>
+        <v>5.205699999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.26240000000001</v>
+        <v>-22.4417</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.40980000000001</v>
+        <v>15.38250000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.1559</v>
+        <v>-22.23010000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.464100000000003</v>
+        <v>5.428299999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.504</v>
+        <v>-21.52590000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>4.888999999999997</v>
+        <v>4.885499999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.330100000000003</v>
+        <v>5.299400000000003</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.44050000000001</v>
+        <v>17.45330000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.98480000000002</v>
+        <v>18.14990000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>17.31900000000001</v>
+        <v>17.03260000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.20399999999999</v>
+        <v>-19.86799999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.40300000000002</v>
+        <v>17.28470000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.94469999999998</v>
+        <v>-21.97049999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.0764</v>
+        <v>-7.988700000000001</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.01779999999998</v>
+        <v>-19.80349999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>17.22350000000001</v>
+        <v>17.07980000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.783100000000006</v>
+        <v>9.737000000000007</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.5971</v>
+        <v>5.498000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.217399999999997</v>
+        <v>5.448299999999997</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.35089999999999</v>
+        <v>16.3571</v>
       </c>
     </row>
     <row r="88">
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.42500000000002</v>
+        <v>-21.35270000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>5.075599999999997</v>
+        <v>5.269299999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.92600000000002</v>
+        <v>18.97560000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.1944</v>
+        <v>-8.143700000000006</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.299399999999999</v>
+        <v>6.382499999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.601399999999998</v>
+        <v>-8.380299999999998</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.3522</v>
+        <v>-8.289300000000001</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.07899999999998</v>
+        <v>-22.2128</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.03160000000001</v>
+        <v>17.07650000000001</v>
       </c>
     </row>
     <row r="102">
